--- a/dy_qT/expdata/40001.xlsx
+++ b/dy_qT/expdata/40001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D192C-3796-C645-9298-97B0F9828B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B2C594-B5AF-0440-80B3-A07EDFDF0270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
   <si>
     <t>FiducialCuts</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>pp-&gt;Z/gamma*-&gt;l+ l-</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>dsig/dpT</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>pb</t>
   </si>
 </sst>
 </file>
@@ -957,15 +969,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1047,8 +1059,14 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8000</v>
       </c>
@@ -1130,8 +1148,14 @@
       <c r="AA2" t="s">
         <v>29</v>
       </c>
+      <c r="AB2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8000</v>
       </c>
@@ -1213,8 +1237,14 @@
       <c r="AA3" t="s">
         <v>29</v>
       </c>
+      <c r="AB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8000</v>
       </c>
@@ -1296,8 +1326,14 @@
       <c r="AA4" t="s">
         <v>29</v>
       </c>
+      <c r="AB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -1379,8 +1415,14 @@
       <c r="AA5" t="s">
         <v>29</v>
       </c>
+      <c r="AB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8000</v>
       </c>
@@ -1462,8 +1504,14 @@
       <c r="AA6" t="s">
         <v>29</v>
       </c>
+      <c r="AB6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -1545,8 +1593,14 @@
       <c r="AA7" t="s">
         <v>29</v>
       </c>
+      <c r="AB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8000</v>
       </c>
@@ -1628,8 +1682,14 @@
       <c r="AA8" t="s">
         <v>29</v>
       </c>
+      <c r="AB8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -1711,8 +1771,14 @@
       <c r="AA9" t="s">
         <v>29</v>
       </c>
+      <c r="AB9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -1794,8 +1860,14 @@
       <c r="AA10" t="s">
         <v>29</v>
       </c>
+      <c r="AB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -1877,8 +1949,14 @@
       <c r="AA11" t="s">
         <v>29</v>
       </c>
+      <c r="AB11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8000</v>
       </c>
@@ -1960,8 +2038,14 @@
       <c r="AA12" t="s">
         <v>29</v>
       </c>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8000</v>
       </c>
@@ -2043,8 +2127,14 @@
       <c r="AA13" t="s">
         <v>29</v>
       </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8000</v>
       </c>
@@ -2126,8 +2216,14 @@
       <c r="AA14" t="s">
         <v>29</v>
       </c>
+      <c r="AB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8000</v>
       </c>
@@ -2208,6 +2304,12 @@
       </c>
       <c r="AA15" t="s">
         <v>29</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
